--- a/occupations_gender_ttest_hu.xlsx
+++ b/occupations_gender_ttest_hu.xlsx
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.555555555555555</v>
+        <v>2.75</v>
       </c>
       <c r="C2" t="n">
         <v>1.909090909090909</v>
       </c>
       <c r="D2" t="n">
-        <v>1.854994540828389</v>
+        <v>2.809348583980861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08015024075164695</v>
+        <v>0.0125108250968409</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.232323232323232</v>
+        <v>2.329545454545455</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;nővér+&lt;/b&gt;</t>
+          <t>&lt;b&gt;nővér*&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.222222222222222</v>
+        <v>2.25</v>
       </c>
       <c r="C3" t="n">
         <v>2.090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5102356761316938</v>
+        <v>0.595325178880599</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6164338185699619</v>
+        <v>0.5595116334279724</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.156565656565657</v>
+        <v>2.170454545454545</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.555555555555556</v>
+        <v>1.75</v>
       </c>
       <c r="C4" t="n">
         <v>1.818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5599431471205226</v>
+        <v>-0.150957301176715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5825746425859299</v>
+        <v>0.8818215012262655</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.686868686868687</v>
+        <v>1.784090909090909</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.666666666666667</v>
+        <v>1.625</v>
       </c>
       <c r="C5" t="n">
         <v>1.181818181818182</v>
       </c>
       <c r="D5" t="n">
-        <v>1.321682291823037</v>
+        <v>1.121528739536914</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2048409152921642</v>
+        <v>0.2819207703364002</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.424242424242424</v>
+        <v>1.403409090909091</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.333333333333333</v>
+        <v>1.375</v>
       </c>
       <c r="C6" t="n">
         <v>1.090909090909091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5071831293409738</v>
+        <v>0.5593247076085552</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6182269850016382</v>
+        <v>0.5837639930038923</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.212121212121212</v>
+        <v>1.232954545454545</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.333333333333333</v>
+        <v>1.375</v>
       </c>
       <c r="C7" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="D7" t="n">
-        <v>1.526095187433031</v>
+        <v>1.249095827098558</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1448558073374145</v>
+        <v>0.2326333205791413</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -670,31 +670,31 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.03030303030303</v>
+        <v>1.051136363636364</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>gondozó</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D8" t="n">
-        <v>1.259756607042135</v>
+        <v>1.116984683977426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.225398740675977</v>
+        <v>0.2833250890375739</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03030303030303</v>
+        <v>1.034090909090909</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>pénztáros</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.222222222222222</v>
+        <v>1.25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>1.127566095699425</v>
+        <v>1.25823495203701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2757540232753706</v>
+        <v>0.227020291288303</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02020202020202</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>modell</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.111111111111111</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7642303692108874</v>
+        <v>0.2205175635451428</v>
       </c>
       <c r="E10" t="n">
-        <v>0.456323330435817</v>
+        <v>0.8286077170641093</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -769,31 +769,31 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9646464646464648</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>bolti eladó</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>fodrász</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2378033307760448</v>
+        <v>-0.8495579403304718</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8148900537662367</v>
+        <v>0.409260087028316</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -802,31 +802,31 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>fodrász</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8369670869164476</v>
+        <v>0.4568605698903513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4140860572439852</v>
+        <v>0.6552069068600812</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -835,11 +835,11 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9343434343434343</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>HR-es</t>
         </is>
       </c>
     </row>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C13" t="n">
         <v>0.6363636363636364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3825293675140686</v>
+        <v>0.2861383851334954</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7068075646852237</v>
+        <v>0.7788582631177363</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.6931818181818181</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5819665839950861</v>
+        <v>-0.7496520280331619</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5680413564429192</v>
+        <v>0.4637354904316588</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6414141414141414</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="C15" t="n">
         <v>0.3636363636363636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4604859862518275</v>
+        <v>0.5842382782089938</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6516839983711337</v>
+        <v>0.5693743222683001</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.4943181818181818</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="C16" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4367329788588083</v>
+        <v>0.4975083437534089</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6692642884619493</v>
+        <v>0.6286984968758305</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.4488636363636364</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1739788324132708</v>
+        <v>1.670285925362412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8642807460777653</v>
+        <v>0.1242555073797352</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1000,64 +1000,64 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.004377969485314</v>
+        <v>1.245961217228975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06674526067873332</v>
+        <v>0.2449434193408703</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;PR munkatárs+&lt;/b&gt;</t>
+          <t>jegyárus</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.125</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D19" t="n">
-        <v>1.221539067708483</v>
+        <v>-0.4941960511612371</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2485087327754917</v>
+        <v>0.6281769704056259</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1066,11 +1066,11 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>felszolgáló</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1087,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1792362881082815</v>
+        <v>-0.1625425460002328</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8605315613300851</v>
+        <v>0.8739656740789326</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1139,20 +1139,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="C22" t="n">
         <v>-0.1818181818181818</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2960965289902909</v>
+        <v>-0.3340410482135461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7707619690966225</v>
+        <v>0.7433252035411497</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1161,31 +1161,31 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2575757575757576</v>
+        <v>-0.2159090909090909</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>bíró</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.375</v>
       </c>
       <c r="C23" t="n">
         <v>-0.1818181818181818</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7336301059801393</v>
+        <v>-0.3628679563933145</v>
       </c>
       <c r="E23" t="n">
-        <v>0.474236281600095</v>
+        <v>0.7212075547303054</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1194,11 +1194,11 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2575757575757576</v>
+        <v>-0.2784090909090909</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>titkár</t>
         </is>
       </c>
     </row>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.125</v>
       </c>
       <c r="C24" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3087905585642198</v>
+        <v>0.9138934930140951</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7621129758756191</v>
+        <v>0.376993680932698</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3939393939393939</v>
+        <v>-0.2897727272727273</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1242,16 +1242,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.375</v>
       </c>
       <c r="C25" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4556943771292084</v>
+        <v>0.2876774024713787</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6541179890177276</v>
+        <v>0.7770809122801492</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.3939393939393939</v>
+        <v>-0.4147727272727273</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1275,16 +1275,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.625</v>
       </c>
       <c r="C26" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3496952422581183</v>
+        <v>-0.5559915419326872</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7317108086863434</v>
+        <v>0.5885609783944263</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.5050505050505051</v>
+        <v>-0.5397727272727273</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1304,20 +1304,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6363636363636364</v>
+        <v>-0.7272727272727273</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2555832279808446</v>
+        <v>0.6361743894869063</v>
       </c>
       <c r="E27" t="n">
-        <v>0.80140556076953</v>
+        <v>0.5338908643783218</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1326,31 +1326,31 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.595959595959596</v>
+        <v>-0.6136363636363636</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.625</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7272727272727273</v>
+        <v>-0.6363636363636364</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5067182255800999</v>
+        <v>0.03418214878573434</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6186114737985996</v>
+        <v>0.9732047985772663</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1359,31 +1359,31 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.6414141414141414</v>
+        <v>-0.6306818181818181</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8181818181818182</v>
+        <v>-0.5454545454545454</v>
       </c>
       <c r="D29" t="n">
-        <v>0.463639199124434</v>
+        <v>-1.248329248529309</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6485916054380543</v>
+        <v>0.2299367855397997</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1392,11 +1392,11 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7424242424242424</v>
+        <v>-0.7727272727272727</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>kórboncnok</t>
         </is>
       </c>
     </row>
@@ -1407,16 +1407,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-0.75</v>
       </c>
       <c r="C30" t="n">
         <v>-0.8181818181818182</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1055320811461892</v>
+        <v>0.1665272181244422</v>
       </c>
       <c r="E30" t="n">
-        <v>0.917152258482216</v>
+        <v>0.8699501863150826</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.797979797979798</v>
+        <v>-0.7840909090909092</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1436,20 +1436,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.111111111111111</v>
+        <v>-0.75</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5454545454545454</v>
+        <v>-0.8181818181818182</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.57456259682926</v>
+        <v>0.2021680850305129</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1332353514047649</v>
+        <v>0.8423711139086906</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1458,11 +1458,11 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.8282828282828283</v>
+        <v>-0.7840909090909092</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>rendező</t>
         </is>
       </c>
     </row>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>-1.125</v>
       </c>
       <c r="C32" t="n">
         <v>-0.7272727272727273</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6174675540283168</v>
+        <v>-0.858398763358898</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5468699137245685</v>
+        <v>0.4077630740963061</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8636363636363636</v>
+        <v>-0.9261363636363636</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1506,16 +1506,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.222222222222222</v>
+        <v>-1.125</v>
       </c>
       <c r="C33" t="n">
         <v>-0.8181818181818182</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.217020388209751</v>
+        <v>-0.8852968857668001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2433915515986444</v>
+        <v>0.393244277565306</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.02020202020202</v>
+        <v>-0.9715909090909092</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1535,20 +1535,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.111111111111111</v>
+        <v>-1.125</v>
       </c>
       <c r="C34" t="n">
         <v>-1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2866732399567221</v>
+        <v>-0.2968515646807708</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7781225510190123</v>
+        <v>0.771331354495182</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1557,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.055555555555556</v>
+        <v>-1.0625</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>vízimentő</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.222222222222222</v>
+        <v>-1.25</v>
       </c>
       <c r="C35" t="n">
         <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5564540392686875</v>
+        <v>-0.639639909325982</v>
       </c>
       <c r="E35" t="n">
-        <v>0.586003421326709</v>
+        <v>0.5327878506119215</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1590,11 +1590,11 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.111111111111111</v>
+        <v>-1.125</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>mérnök</t>
         </is>
       </c>
     </row>
@@ -1605,29 +1605,29 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.8888888888888888</v>
+        <v>-1</v>
       </c>
       <c r="C36" t="n">
         <v>-1.454545454545455</v>
       </c>
       <c r="D36" t="n">
-        <v>1.777419553447351</v>
+        <v>1.460426590320796</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09255920338756046</v>
+        <v>0.1625456745416626</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.171717171717172</v>
+        <v>-1.227272727272727</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;vezérigazgató+&lt;/b&gt;</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
     </row>
@@ -1638,115 +1638,115 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.666666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="C37" t="n">
         <v>-0.9090909090909091</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.117807695866236</v>
+        <v>-2.224951257895402</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05090995870123743</v>
+        <v>0.04450613336220182</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.287878787878788</v>
+        <v>-1.329545454545455</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;építész+&lt;/b&gt;</t>
+          <t>&lt;b&gt;építész*&lt;/b&gt;</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.666666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>-1.454545454545455</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.102881488045349</v>
+        <v>0.5123712597387547</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05149831900435821</v>
+        <v>0.616108250139046</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.333333333333333</v>
+        <v>-1.352272727272727</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;rendőr+&lt;/b&gt;</t>
+          <t>munkás</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.222222222222222</v>
+        <v>-1.75</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.454545454545455</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6246748868570813</v>
+        <v>-2.37750468940105</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5404265158038607</v>
+        <v>0.03052015364141669</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.338383838383838</v>
+        <v>-1.375</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>&lt;b&gt;rendőr*&lt;/b&gt;</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.555555555555556</v>
+        <v>-1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.181818181818182</v>
+        <v>-1.272727272727273</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.127467297153949</v>
+        <v>-0.7496520280331619</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2748206060065291</v>
+        <v>0.4637354904316588</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1755,31 +1755,31 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.368686868686869</v>
+        <v>-1.386363636363636</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>földműves</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.555555555555556</v>
+        <v>-1.625</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.272727272727273</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9585331971683771</v>
+        <v>-1.277037341959841</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3509029660407069</v>
+        <v>0.2206012217271281</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1788,11 +1788,11 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.414141414141414</v>
+        <v>-1.403409090909091</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>programozó</t>
         </is>
       </c>
     </row>
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.555555555555556</v>
+        <v>-1.5</v>
       </c>
       <c r="C42" t="n">
         <v>-1.727272727272727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4708165934005351</v>
+        <v>0.5951898958700064</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6434272827621716</v>
+        <v>0.5597521829614759</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.641414141414141</v>
+        <v>-1.613636363636364</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1836,29 +1836,29 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2</v>
+        <v>-2.125</v>
       </c>
       <c r="C43" t="n">
         <v>-1.545454545454545</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.524198207428801</v>
+        <v>-2.091499300481651</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1460492054556554</v>
+        <v>0.05463502151721475</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.772727272727273</v>
+        <v>-1.835227272727273</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>&lt;b&gt;katona+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.888888888888889</v>
+        <v>-1.875</v>
       </c>
       <c r="C44" t="n">
         <v>-1.909090909090909</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1025708464311956</v>
+        <v>0.1662056238286338</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9195101639039163</v>
+        <v>0.8699689420478186</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.898989898989899</v>
+        <v>-1.892045454545455</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>-2.363636363636364</v>
       </c>
       <c r="D45" t="n">
-        <v>1.029938581014899</v>
+        <v>0.9437457621723612</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3194054436898187</v>
+        <v>0.3636542784056463</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>

--- a/occupations_gender_ttest_hu.xlsx
+++ b/occupations_gender_ttest_hu.xlsx
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.75</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="C2" t="n">
         <v>1.909090909090909</v>
       </c>
       <c r="D2" t="n">
-        <v>2.809348583980861</v>
+        <v>1.854994540828389</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0125108250968409</v>
+        <v>0.08015024075164695</v>
       </c>
       <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.329545454545455</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;nővér*&lt;/b&gt;</t>
+          <t>&lt;b&gt;nővér+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.25</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>2.090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.595325178880599</v>
+        <v>0.9009260366565522</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5595116334279724</v>
+        <v>0.3796999567114842</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.170454545454545</v>
+        <v>2.212121212121212</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.75</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="C4" t="n">
         <v>1.818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.150957301176715</v>
+        <v>-0.09446344746692593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8818215012262655</v>
+        <v>0.9257867908801332</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.784090909090909</v>
+        <v>1.797979797979798</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.625</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C5" t="n">
         <v>1.181818181818182</v>
       </c>
       <c r="D5" t="n">
-        <v>1.121528739536914</v>
+        <v>1.321682291823037</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2819207703364002</v>
+        <v>0.2048409152921642</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.403409090909091</v>
+        <v>1.424242424242424</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.375</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="C6" t="n">
         <v>1.090909090909091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5593247076085552</v>
+        <v>0.7346961007081029</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5837639930038923</v>
+        <v>0.4720784767015535</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.232954545454545</v>
+        <v>1.267676767676768</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.375</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="C7" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="D7" t="n">
-        <v>1.249095827098558</v>
+        <v>1.480870905953968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2326333205791413</v>
+        <v>0.1577212360376956</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.051136363636364</v>
+        <v>1.085858585858586</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C8" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="D8" t="n">
-        <v>1.116984683977426</v>
+        <v>1.404287435061976</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2833250890375739</v>
+        <v>0.1793263725734661</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.034090909090909</v>
+        <v>1.075757575757576</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C9" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>1.25823495203701</v>
+        <v>1.526095187433031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.227020291288303</v>
+        <v>0.1448558073374145</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9886363636363636</v>
+        <v>1.03030303030303</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -747,20 +747,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>fodrász</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2205175635451428</v>
+        <v>-0.5074524279700692</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8286077170641093</v>
+        <v>0.6186246385726129</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -769,31 +769,31 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9898989898989898</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>fodrász</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.090909090909091</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8495579403304718</v>
+        <v>0.2378033307760448</v>
       </c>
       <c r="E11" t="n">
-        <v>0.409260087028316</v>
+        <v>0.8148900537662367</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -802,11 +802,11 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>bolti eladó</t>
         </is>
       </c>
     </row>
@@ -823,10 +823,10 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4568605698903513</v>
+        <v>0.4956308594336385</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6552069068600812</v>
+        <v>0.6268858487159168</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13" t="n">
         <v>0.6363636363636364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2861383851334954</v>
+        <v>0.08017980436873211</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7788582631177363</v>
+        <v>0.937047591781786</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6931818181818181</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C14" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7496520280331619</v>
+        <v>-0.5819665839950861</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4637354904316588</v>
+        <v>0.5680413564429192</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.6414141414141414</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15" t="n">
         <v>0.3636363636363636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5842382782089938</v>
+        <v>0.7336301059801392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5693743222683001</v>
+        <v>0.4742362816000951</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4943181818181818</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4975083437534089</v>
+        <v>0.6105574604284473</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6286984968758305</v>
+        <v>0.5516799479605121</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4488636363636364</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -982,29 +982,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.670285925362412</v>
+        <v>2.092393235684038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1242555073797352</v>
+        <v>0.05944486822231794</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>&lt;b&gt;PR munkatárs+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1015,16 +1015,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.245961217228975</v>
+        <v>1.221539067708483</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2449434193408703</v>
+        <v>0.2485087327754917</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C19" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4941960511612371</v>
+        <v>-0.5781601099613657</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6281769704056259</v>
+        <v>0.5704562273098626</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1077,21 +1077,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.1625425460002328</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8739656740789326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
         <v>0</v>
       </c>
@@ -1099,28 +1095,32 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>diák</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3890763421524201</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7036832657967995</v>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
@@ -1128,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-0.0101010101010101</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>tanár</t>
         </is>
       </c>
     </row>
@@ -1143,16 +1143,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="C22" t="n">
         <v>-0.1818181818181818</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3340410482135461</v>
+        <v>-0.7336301059801393</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7433252035411497</v>
+        <v>0.474236281600095</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2159090909090909</v>
+        <v>-0.2575757575757576</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.375</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="C23" t="n">
         <v>-0.1818181818181818</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3628679563933145</v>
+        <v>-0.510235676131693</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7212075547303054</v>
+        <v>0.6164338185699628</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2784090909090909</v>
+        <v>-0.3131313131313131</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1205,20 +1205,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.125</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="C24" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9138934930140951</v>
+        <v>0.4556943771292084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.376993680932698</v>
+        <v>0.6541179890177276</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1227,31 +1227,31 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2897727272727273</v>
+        <v>-0.3939393939393939</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tudós</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.375</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="C25" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2876774024713787</v>
+        <v>0.02190040659029773</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7770809122801492</v>
+        <v>0.982888821236156</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1260,11 +1260,11 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.4147727272727273</v>
+        <v>-0.4494949494949495</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>pincér</t>
         </is>
       </c>
     </row>
@@ -1275,16 +1275,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.625</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="C26" t="n">
         <v>-0.4545454545454545</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5559915419326872</v>
+        <v>-0.7483314773547883</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5885609783944263</v>
+        <v>0.4662796444688322</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.5397727272727273</v>
+        <v>-0.5606060606060606</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1304,20 +1304,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.5</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7272727272727273</v>
+        <v>-0.6363636363636364</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6361743894869063</v>
+        <v>-0.09735847670224702</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5338908643783218</v>
+        <v>0.9235895187106469</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1326,31 +1326,31 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.6136363636363636</v>
+        <v>-0.6515151515151515</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.625</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6363636363636364</v>
+        <v>-0.7272727272727273</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03418214878573434</v>
+        <v>0.1622481088698806</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9732047985772663</v>
+        <v>0.8730873193683095</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1359,31 +1359,31 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.6306818181818181</v>
+        <v>-0.696969696969697</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.5454545454545454</v>
+        <v>-0.8181818181818182</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.248329248529309</v>
+        <v>0.1055320811461892</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2299367855397997</v>
+        <v>0.917152258482216</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1392,31 +1392,31 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7727272727272727</v>
+        <v>-0.797979797979798</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>kertész</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.75</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8181818181818182</v>
+        <v>-0.5454545454545454</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1665272181244422</v>
+        <v>-1.57456259682926</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8699501863150826</v>
+        <v>0.1332353514047649</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1425,11 +1425,11 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.7840909090909092</v>
+        <v>-0.8282828282828283</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>kórboncnok</t>
         </is>
       </c>
     </row>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.75</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="C31" t="n">
         <v>-0.8181818181818182</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2021680850305129</v>
+        <v>-0.2048483168576548</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8423711139086906</v>
+        <v>0.8401345223463442</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.7840909090909092</v>
+        <v>-0.8535353535353536</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1469,20 +1469,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.125</v>
+        <v>-1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.7272727272727273</v>
+        <v>-0.8181818181818182</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.858398763358898</v>
+        <v>-0.532938710021193</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4077630740963061</v>
+        <v>0.602516356973205</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.9261363636363636</v>
+        <v>-0.9090909090909092</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>szakács</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.125</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8181818181818182</v>
+        <v>-0.7272727272727273</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.8852968857668001</v>
+        <v>-0.9055836686958486</v>
       </c>
       <c r="E33" t="n">
-        <v>0.393244277565306</v>
+        <v>0.3799259934950374</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1524,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.9715909090909092</v>
+        <v>-0.9191919191919192</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>professzor</t>
         </is>
       </c>
     </row>
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.125</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="C34" t="n">
         <v>-1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2968515646807708</v>
+        <v>-0.5564540392686875</v>
       </c>
       <c r="E34" t="n">
-        <v>0.771331354495182</v>
+        <v>0.586003421326709</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.0625</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1572,16 +1572,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.25</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="C35" t="n">
         <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.639639909325982</v>
+        <v>-0.8976975024254025</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5327878506119215</v>
+        <v>0.3824073896219577</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.125</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>-1.454545454545455</v>
       </c>
       <c r="D36" t="n">
-        <v>1.460426590320796</v>
+        <v>1.524198207428801</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1625456745416626</v>
+        <v>0.1460492054556554</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1638,49 +1638,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.75</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="C37" t="n">
         <v>-0.9090909090909091</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.224951257895402</v>
+        <v>-2.117807695866236</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04450613336220182</v>
+        <v>0.05090995870123743</v>
       </c>
       <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
         <v>1</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
-        <v>-1.329545454545455</v>
+        <v>-1.287878787878788</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;építész*&lt;/b&gt;</t>
+          <t>&lt;b&gt;építész+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.25</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.454545454545455</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5123712597387547</v>
+        <v>-1.127467297153949</v>
       </c>
       <c r="E38" t="n">
-        <v>0.616108250139046</v>
+        <v>0.2748206060065291</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1689,11 +1689,11 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.352272727272727</v>
+        <v>-1.368686868686869</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>programozó</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.75</v>
+        <v>-1.777777777777778</v>
       </c>
       <c r="C39" t="n">
         <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.37750468940105</v>
+        <v>-2.532360459008275</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03052015364141669</v>
+        <v>0.02285680324212319</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.375</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1733,20 +1733,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.5</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.272727272727273</v>
+        <v>-1.454545454545455</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7496520280331619</v>
+        <v>0.3188795127142117</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4637354904316588</v>
+        <v>0.7537463580687647</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1755,31 +1755,31 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.386363636363636</v>
+        <v>-1.393939393939394</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>munkás</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.625</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.181818181818182</v>
+        <v>-1.272727272727273</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.277037341959841</v>
+        <v>-0.9585331971683771</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2206012217271281</v>
+        <v>0.3509029660407069</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1788,11 +1788,11 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.403409090909091</v>
+        <v>-1.414141414141414</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>földműves</t>
         </is>
       </c>
     </row>
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.5</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="C42" t="n">
         <v>-1.727272727272727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5951898958700064</v>
+        <v>0.4708165934005351</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5597521829614759</v>
+        <v>0.6434272827621716</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.613636363636364</v>
+        <v>-1.641414141414141</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.125</v>
+        <v>-2.111111111111111</v>
       </c>
       <c r="C43" t="n">
         <v>-1.545454545454545</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.091499300481651</v>
+        <v>-2.086417299111083</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05463502151721475</v>
+        <v>0.05607371045976034</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.835227272727273</v>
+        <v>-1.828282828282828</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.875</v>
+        <v>-1.888888888888889</v>
       </c>
       <c r="C44" t="n">
         <v>-1.909090909090909</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1662056238286338</v>
+        <v>0.1025708464311956</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8699689420478186</v>
+        <v>0.9195101639039163</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.892045454545455</v>
+        <v>-1.898989898989899</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>-2.363636363636364</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9437457621723612</v>
+        <v>1.029938581014899</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3636542784056463</v>
+        <v>0.3194054436898187</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
